--- a/data/trans_bre/IP16A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A05-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>-9,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>19,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>-27,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>56,57%</t>
+          <t>-54,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,74%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 15,17</t>
+          <t>-59,77; 16,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 10,54</t>
+          <t>-53,67; 74,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 18,24</t>
+          <t>-89,02; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 9,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 400,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-67,57; 129,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 544,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,59; 248,73</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-21,37%</t>
+          <t>56,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>50,03%</t>
+          <t>-17,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,04%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>141,38%</t>
+          <t>8,71%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 11,61</t>
+          <t>-5,54; 15,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 20,93</t>
+          <t>-16,78; 10,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 17,39</t>
+          <t>-3,75; 18,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 11,63</t>
+          <t>-8,81; 9,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,21; 294,58</t>
+          <t>-50,87; 400,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 316,97</t>
+          <t>-67,57; 129,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-63,88; 587,14</t>
+          <t>-31,34; 544,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,59; 248,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,5</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,81</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,81</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-54,1%</t>
+          <t>-34,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,26%</t>
+          <t>162,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-48,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,31%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,77; 16,2</t>
+          <t>-14,3; 7,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,67; 74,47</t>
+          <t>-0,76; 22,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-89,02; 0,0</t>
+          <t>-26,38; 3,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 15,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 274,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,4; 945,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,36; 47,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,15; 620,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-34,96%</t>
+          <t>-21,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>162,32%</t>
+          <t>50,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-48,11%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>84,31%</t>
+          <t>141,38%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 7,52</t>
+          <t>-11,59; 11,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 22,46</t>
+          <t>-6,16; 20,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 3,96</t>
+          <t>-8,98; 17,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 15,55</t>
+          <t>-4,48; 11,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 274,6</t>
+          <t>-83,21; 294,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 945,44</t>
+          <t>-37,75; 316,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-84,36; 47,8</t>
+          <t>-63,88; 587,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-59,15; 620,95</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A05-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-59,77; 16,2</t>
+          <t>-57,4; 16,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-53,67; 74,47</t>
+          <t>-52,87; 73,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 6,52</t>
+          <t>-18,44; 6,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 18,76</t>
+          <t>-11,86; 18,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 3,0</t>
+          <t>-29,8; 0,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 21,65</t>
+          <t>-2,66; 21,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,49; 304,81</t>
+          <t>-69,71; 359,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 15,17</t>
+          <t>-6,25; 15,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 10,54</t>
+          <t>-16,33; 10,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 18,24</t>
+          <t>-3,58; 18,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 9,57</t>
+          <t>-8,84; 9,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 400,92</t>
+          <t>-56,28; 418,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,57; 129,04</t>
+          <t>-68,96; 109,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 544,28</t>
+          <t>-34,81; 573,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,59; 248,73</t>
+          <t>-73,04; 279,85</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 7,52</t>
+          <t>-15,3; 6,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 22,46</t>
+          <t>-0,16; 22,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 3,96</t>
+          <t>-25,61; 2,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 15,55</t>
+          <t>-4,31; 16,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 274,6</t>
+          <t>-100,0; 171,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 945,44</t>
+          <t>-25,63; 848,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-84,36; 47,8</t>
+          <t>-85,61; 41,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,15; 620,95</t>
+          <t>-53,61; 651,3</t>
         </is>
       </c>
     </row>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 11,61</t>
+          <t>-13,3; 10,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 20,93</t>
+          <t>-6,61; 20,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 17,39</t>
+          <t>-8,07; 16,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 11,63</t>
+          <t>-3,35; 11,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-83,21; 294,58</t>
+          <t>-85,44; 275,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 316,97</t>
+          <t>-39,54; 271,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-63,88; 587,14</t>
+          <t>-66,69; 566,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 4,1</t>
+          <t>-6,73; 4,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 12,27</t>
+          <t>-2,13; 11,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 5,05</t>
+          <t>-8,67; 5,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 8,03</t>
+          <t>-1,78; 8,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,63; 55,95</t>
+          <t>-54,49; 62,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 122,81</t>
+          <t>-15,03; 114,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,64; 57,54</t>
+          <t>-48,82; 62,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 230,87</t>
+          <t>-26,27; 265,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A05-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-57,4; 16,54</t>
+          <t>-59,32; 16,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 73,99</t>
+          <t>-56,17; 74,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-89,02; 0,0</t>
+          <t>-85,19; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 6,52</t>
+          <t>-17,06; 7,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 18,44</t>
+          <t>-13,26; 18,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 0,09</t>
+          <t>-28,53; 2,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 21,58</t>
+          <t>-2,88; 21,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,71; 359,33</t>
+          <t>-71,86; 258,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 15,48</t>
+          <t>-6,05; 14,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 10,01</t>
+          <t>-16,26; 10,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 18,85</t>
+          <t>-4,37; 18,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 9,71</t>
+          <t>-8,49; 10,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-56,28; 418,45</t>
+          <t>-62,28; 442,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,96; 109,18</t>
+          <t>-68,09; 117,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,81; 573,27</t>
+          <t>-40,34; 573,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,04; 279,85</t>
+          <t>-73,01; 290,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 6,77</t>
+          <t>-14,02; 9,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 22,84</t>
+          <t>-0,55; 22,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 2,43</t>
+          <t>-25,11; 5,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 16,38</t>
+          <t>-3,78; 16,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 171,16</t>
+          <t>-100,0; 258,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 848,51</t>
+          <t>-27,11; 918,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-85,61; 41,05</t>
+          <t>-85,35; 67,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,61; 651,3</t>
+          <t>-50,12; 670,3</t>
         </is>
       </c>
     </row>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 10,33</t>
+          <t>-13,85; 11,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 20,12</t>
+          <t>-6,18; 19,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 16,68</t>
+          <t>-8,35; 16,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 11,54</t>
+          <t>-4,54; 11,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-85,44; 275,3</t>
+          <t>-100,0; 276,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,54; 271,2</t>
+          <t>-36,21; 267,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-66,69; 566,76</t>
+          <t>-69,01; 499,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 4,5</t>
+          <t>-6,81; 4,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 11,38</t>
+          <t>-1,82; 11,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 5,45</t>
+          <t>-7,94; 5,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 8,68</t>
+          <t>-1,26; 8,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 62,44</t>
+          <t>-53,33; 62,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 114,49</t>
+          <t>-9,11; 141,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,82; 62,85</t>
+          <t>-49,13; 57,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 265,9</t>
+          <t>-21,2; 257,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A05-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,5</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,81</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-27,81</t>
+          <t>-13,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-54,1%</t>
+          <t>-46,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>71,26%</t>
+          <t>48,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-84,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>239,78%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-59,32; 16,14</t>
+          <t>-18,84; 4,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-56,17; 74,84</t>
+          <t>-9,06; 25,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-85,19; 0,0</t>
+          <t>-30,64; -3,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 16,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 211,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,85; 291,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 26,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,74</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-48,23%</t>
+          <t>56,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>-17,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-76,03%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>243,71%</t>
+          <t>1,29%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 7,42</t>
+          <t>-5,54; 15,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 18,28</t>
+          <t>-16,78; 10,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 2,8</t>
+          <t>-3,75; 18,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 21,86</t>
+          <t>-9,3; 8,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,87; 400,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,86; 258,56</t>
+          <t>-67,57; 129,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,34; 544,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,29; 228,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,57%</t>
+          <t>-34,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,74%</t>
+          <t>162,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>-48,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>66,38%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 14,72</t>
+          <t>-14,3; 7,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 10,31</t>
+          <t>-0,76; 22,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 18,78</t>
+          <t>-26,38; 3,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 10,28</t>
+          <t>-7,71; 17,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,28; 442,5</t>
+          <t>-100,0; 274,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,09; 117,59</t>
+          <t>-20,4; 945,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 573,26</t>
+          <t>-84,36; 47,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,01; 290,66</t>
+          <t>-78,23; 580,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-34,96%</t>
+          <t>-21,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>162,32%</t>
+          <t>50,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-48,11%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>84,31%</t>
+          <t>158,06%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 9,84</t>
+          <t>-11,59; 11,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 22,09</t>
+          <t>-6,16; 20,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 5,13</t>
+          <t>-8,98; 17,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 16,84</t>
+          <t>-3,81; 11,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 258,48</t>
+          <t>-83,21; 294,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 918,53</t>
+          <t>-37,75; 316,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-85,35; 67,7</t>
+          <t>-63,88; 587,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,12; 670,3</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-21,37%</t>
+          <t>-12,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>50,03%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41,04%</t>
+          <t>-10,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>141,38%</t>
+          <t>57,09%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 11,22</t>
+          <t>-7,03; 4,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 19,21</t>
+          <t>-1,44; 12,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 16,36</t>
+          <t>-7,9; 5,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 11,05</t>
+          <t>-2,21; 8,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 276,77</t>
+          <t>-54,63; 55,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,21; 267,93</t>
+          <t>-10,51; 122,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-69,01; 499,41</t>
+          <t>-49,64; 57,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,49; 250,83</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-12,74%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>37,84%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-10,28%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>60,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 4,52</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,82; 11,95</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; 5,35</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 8,87</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-53,33; 62,58</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-9,11; 141,43</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-49,13; 57,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-21,2; 257,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
